--- a/dev/data/xfoil_0015.xlsx
+++ b/dev/data/xfoil_0015.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/804e948ec85320fd/Documents/School/MAE 5500/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremiah Goates\git-repos\VORPAN\dev\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F4E63662-509C-458F-9AD7-0177543265D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1B810EC-EE43-4129-8183-59451852B076}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552F27F9-C3F7-46C5-8014-5DA5A9FC1273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{98623B2E-7AB2-4517-AC29-E307BD2F86C3}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{98623B2E-7AB2-4517-AC29-E307BD2F86C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>C_D</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>C_N</t>
   </si>
 </sst>
 </file>
@@ -425,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5B1A8B-60C3-4710-999B-DF087E71F235}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,388 +449,628 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>-12</v>
+      </c>
+      <c r="B2">
+        <v>-1.3138000000000001</v>
+      </c>
+      <c r="C2">
+        <f>D2-0.25*F2</f>
+        <v>0.32593249669095742</v>
+      </c>
+      <c r="D2">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="E2">
+        <v>1.4619999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <f>B2*COS(RADIANS(A2)) +E2*SIN(RADIANS(A2))</f>
+        <v>-1.2881299867638296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-11</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C30" si="0">D3-0.25*F3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F30" si="1">B3*COS(RADIANS(A3)) +E3*SIN(RADIANS(A3))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>-10</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>-1.1020000000000001</v>
       </c>
-      <c r="C2">
-        <f>D2-0.25*B2</f>
-        <v>0.27180000000000004</v>
-      </c>
-      <c r="D2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.26809120020255905</v>
+      </c>
+      <c r="D4">
         <v>-3.7000000000000002E-3</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>1.098E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>-1.0871648008102361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>-9</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>-0.97929999999999995</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C22" si="0">D3-0.25*B3</f>
-        <v>0.23812499999999998</v>
-      </c>
-      <c r="D3">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.23549758220101655</v>
+      </c>
+      <c r="D5">
         <v>-6.7000000000000002E-3</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>9.8899999999999995E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>-0.96879032880406624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>-8</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>-0.87380000000000002</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.21285000000000001</v>
-      </c>
-      <c r="D4">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.21103719909375618</v>
+      </c>
+      <c r="D6">
         <v>-5.5999999999999999E-3</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>-0.86654879637502469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>-7</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>-0.77110000000000001</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.18917500000000001</v>
-      </c>
-      <c r="D5">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.18798822120999492</v>
+      </c>
+      <c r="D7">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>8.2100000000000003E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-0.76635288483997965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>-6</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>-0.66490000000000005</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.163825</v>
-      </c>
-      <c r="D6">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.16311065424737625</v>
+      </c>
+      <c r="D8">
         <v>-2.3999999999999998E-3</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>7.5100000000000002E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-0.66204261698950506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>-5</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>-0.55669999999999997</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.13767499999999999</v>
-      </c>
-      <c r="D7">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.13729639443122899</v>
+      </c>
+      <c r="D9">
         <v>-1.5E-3</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>6.9300000000000004E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-0.55518557772491595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>-4</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>-0.44740000000000002</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.11105000000000001</v>
-      </c>
-      <c r="D8">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.11089002133547375</v>
+      </c>
+      <c r="D10">
         <v>-8.0000000000000004E-4</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>6.45E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>-0.44676008534189499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>-3</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>-0.33700000000000002</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>8.3850000000000008E-2</v>
-      </c>
-      <c r="D9">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>8.3814219796452732E-2</v>
+      </c>
+      <c r="D11">
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>6.0899999999999999E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-0.33685687918581092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>-2</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>-0.2253</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>5.6224999999999997E-2</v>
-      </c>
-      <c r="D10">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>5.6241641597036214E-2</v>
+      </c>
+      <c r="D12">
         <v>-1E-4</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>5.8399999999999997E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>-0.22536656638814487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>-1</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>-0.11269999999999999</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>2.8074999999999999E-2</v>
-      </c>
-      <c r="D11">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2.8095578490204449E-2</v>
+      </c>
+      <c r="D13">
         <v>-1E-4</v>
-      </c>
-      <c r="E11">
-        <v>5.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>1E-4</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>-2.5000000000000001E-5</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>5.6600000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>0.11269999999999999</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>-2.8074999999999999E-2</v>
-      </c>
-      <c r="D13">
-        <v>1E-4</v>
       </c>
       <c r="E13">
         <v>5.7000000000000002E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>-0.1127823139608178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1E-4</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-2.5000000000000001E-5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>5.6600000000000001E-3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-2.8095578490204449E-2</v>
+      </c>
+      <c r="D15">
+        <v>1E-4</v>
+      </c>
+      <c r="E15">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.1127823139608178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>0.2253</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>-5.6224999999999997E-2</v>
-      </c>
-      <c r="D14">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-5.6241641597036214E-2</v>
+      </c>
+      <c r="D16">
         <v>1E-4</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>5.8399999999999997E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.22536656638814487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>3</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>0.33700000000000002</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>-8.3850000000000008E-2</v>
-      </c>
-      <c r="D15">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-8.3814219796452732E-2</v>
+      </c>
+      <c r="D17">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>6.0899999999999999E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.33685687918581092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>0.44740000000000002</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>-0.11105000000000001</v>
-      </c>
-      <c r="D16">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-0.11089002133547375</v>
+      </c>
+      <c r="D18">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>6.45E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.44676008534189499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>0.55669999999999997</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>-0.13767499999999999</v>
-      </c>
-      <c r="D17">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-0.13729639443122899</v>
+      </c>
+      <c r="D19">
         <v>1.5E-3</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>6.9300000000000004E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.55518557772491595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>6</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>0.66490000000000005</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>-0.163825</v>
-      </c>
-      <c r="D18">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-0.16311065424737625</v>
+      </c>
+      <c r="D20">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>7.5100000000000002E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.66204261698950506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>7</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>0.77110000000000001</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>-0.18917500000000001</v>
-      </c>
-      <c r="D19">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-0.18798822120999492</v>
+      </c>
+      <c r="D21">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>8.2100000000000003E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.76635288483997965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>8</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>0.87380000000000002</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>-0.21285000000000001</v>
-      </c>
-      <c r="D20">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-0.21103719909375618</v>
+      </c>
+      <c r="D22">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.86654879637502469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>9</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>0.9738</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>-0.23674999999999999</v>
-      </c>
-      <c r="D21">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-0.23413951073269826</v>
+      </c>
+      <c r="D23">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>9.8899999999999995E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.96335804293079308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>10</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>1.1020000000000001</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>-0.27180000000000004</v>
-      </c>
-      <c r="D22">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-0.26809120020255905</v>
+      </c>
+      <c r="D24">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <v>1.098E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>5</v>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1.0871648008102361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>1.3138000000000001</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>-0.3180659649498957</v>
+      </c>
+      <c r="D26">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="E26">
+        <v>1.3339999999999999E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1.2878638597995828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>1.3885000000000001</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>-0.32895040484220162</v>
+      </c>
+      <c r="D27">
+        <v>1.01E-2</v>
+      </c>
+      <c r="E27">
+        <v>1.4619999999999999E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1.3562016193688065</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>1.4595</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>-0.33881643680213286</v>
+      </c>
+      <c r="D28">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="E28">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1.4200657472085314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>1.5217000000000001</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>-0.34614513550213732</v>
+      </c>
+      <c r="D29">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="E29">
+        <v>1.8280000000000001E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1.4745805420085494</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>1.5797000000000001</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>-0.35327130410631125</v>
+      </c>
+      <c r="D30">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="E30">
+        <v>2.0969999999999999E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1.5242852164252449</v>
       </c>
     </row>
   </sheetData>
